--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-42920\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
@@ -24,23 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>When I am verifying Forget Password Scenario</t>
-  </si>
-  <si>
     <t>login_id</t>
   </si>
   <si>
     <t>customer_type_query</t>
   </si>
   <si>
-    <t>YASIR113</t>
-  </si>
-  <si>
     <t>cnic_no</t>
   </si>
   <si>
@@ -50,9 +44,6 @@
     <t>card_pin</t>
   </si>
   <si>
-    <t>1350361299161</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -62,64 +53,136 @@
     <t>email</t>
   </si>
   <si>
-    <t>tran_message_qeury</t>
-  </si>
-  <si>
-    <t>tran_id_query</t>
-  </si>
-  <si>
-    <t>tran_type_query</t>
-  </si>
-  <si>
-    <t>tran_date_query</t>
-  </si>
-  <si>
-    <t>4902860007216383</t>
-  </si>
-  <si>
-    <t>tran_debit_query</t>
-  </si>
-  <si>
-    <t>activation_password</t>
-  </si>
-  <si>
-    <t>pakistan2</t>
-  </si>
-  <si>
     <t>new_password</t>
   </si>
   <si>
-    <t>pakistan1</t>
-  </si>
-  <si>
     <t>password_query</t>
   </si>
   <si>
     <t>password_change_req_query</t>
   </si>
   <si>
-    <t>Select O.RESPONSE_MESSAGE from dc_transaction o where O.CNIC ='{customer_cnic}' order by CREATED_ON desc</t>
-  </si>
-  <si>
-    <t>Select O.TRANSACTION_ID from dc_transaction o where O.CNIC ='{customer_cnic}' order by CREATED_ON desc</t>
-  </si>
-  <si>
-    <t>Select O.created_on from dc_transaction o where O.CNIC ='{customer_cnic}' order by CREATED_ON desc</t>
-  </si>
-  <si>
-    <t>Select O.DEBIT_CARD_NUMBER from dc_transaction o where O.CNIC ='{customer_cnic}' order by CREATED_ON desc</t>
-  </si>
-  <si>
     <t>Begin update dc_customer_info p set P.LOGIN_PASSWORD='$2a$10$fZ3EqVq2W9QWb2silU6sVuDUr.2XrXNSHjU98hOuQsCE/Dr1oN6cy' where P.CNIC='{customer_cnic}';COMMIT;END;</t>
   </si>
   <si>
     <t>select IS_PASSWORD_CHANGED_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
-    <t>Select O.TRANSACTION_TYPE_ID from dc_transaction o where O.CNIC='{customer_cnic}' and O.STATUS='Success' order by CREATED_ON desc</t>
-  </si>
-  <si>
     <t>Select I.CUSTOMER_TYPE from dc_customer_info i where I.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>RYANDIAS</t>
+  </si>
+  <si>
+    <t>4200004790677</t>
+  </si>
+  <si>
+    <t>5366190017355427</t>
+  </si>
+  <si>
+    <t>mobile_no_query</t>
+  </si>
+  <si>
+    <t>Select K.MOBILE_NO from DC_CUSTOMER_INFO K where K.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>OTP_message</t>
+  </si>
+  <si>
+    <t>A one time password has been sent to your mobile number xxxxxxx and/ or email address registered with HBL.</t>
+  </si>
+  <si>
+    <t>customer_info_id_query</t>
+  </si>
+  <si>
+    <t>Select K.CUSTOMER_INFO_ID from DC_CUSTOMER_INFO K where K.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>pakistan3</t>
+  </si>
+  <si>
+    <t>new_re_password</t>
+  </si>
+  <si>
+    <t>success_message_password</t>
+  </si>
+  <si>
+    <t>Your login password has changed.</t>
+  </si>
+  <si>
+    <t>db_val</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>lead_field_value</t>
+  </si>
+  <si>
+    <t>lead_field_query</t>
+  </si>
+  <si>
+    <t>FORGOT_PASSWORD True</t>
+  </si>
+  <si>
+    <t>password_policy</t>
+  </si>
+  <si>
+    <t>password_policy2</t>
+  </si>
+  <si>
+    <t>password_policy3</t>
+  </si>
+  <si>
+    <t>Password Policy</t>
+  </si>
+  <si>
+    <t>Should be between 8 and 15 characters with at least 1 alphabet and 1 numeric digit</t>
+  </si>
+  <si>
+    <t>Special characters allowed are ! @ # $ . &amp; *</t>
+  </si>
+  <si>
+    <t>SELECT * FROM (SELECT T.LEAD_FIELD2 FROM DC_TRANSACTION T WHERE T.CREATED_ON&gt;=TRUNC(Sysdate) AND T.TRANSACTION_TYPE_ID = '249' AND T.CUSTOMER_INFO_ID=(SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CNIC='{customer_cnic}') AND T.CLIENT_DEVICE_OS = 'Windows 10' ORDER BY (T.CREATED_ON) desc) WHERE rownum = 1</t>
+  </si>
+  <si>
+    <t>last_pass_change_query</t>
+  </si>
+  <si>
+    <t>select P.LAST_PASSWORD_CHANGED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>is_password_change_required_value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>is_password_reset_required_value</t>
+  </si>
+  <si>
+    <t>is_password_reset_required_query</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_PASSWORD_RESET_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>When I am verifying Forget Password for Debit Type Customer</t>
+  </si>
+  <si>
+    <t>When I am verifying Forget Password for Credit Type Customer</t>
+  </si>
+  <si>
+    <t>MOJIZABIDI99</t>
+  </si>
+  <si>
+    <t>3660178807169</t>
+  </si>
+  <si>
+    <t>4902870004884109</t>
+  </si>
+  <si>
+    <t>farooq.leo@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -155,9 +218,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,132 +504,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="121" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="118" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="112.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="114.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="165.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="165.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="101.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="83.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="73">
   <si>
     <t>Case</t>
   </si>
@@ -74,12 +74,6 @@
     <t>RYANDIAS</t>
   </si>
   <si>
-    <t>4200004790677</t>
-  </si>
-  <si>
-    <t>5366190017355427</t>
-  </si>
-  <si>
     <t>mobile_no_query</t>
   </si>
   <si>
@@ -125,24 +119,6 @@
     <t>FORGOT_PASSWORD True</t>
   </si>
   <si>
-    <t>password_policy</t>
-  </si>
-  <si>
-    <t>password_policy2</t>
-  </si>
-  <si>
-    <t>password_policy3</t>
-  </si>
-  <si>
-    <t>Password Policy</t>
-  </si>
-  <si>
-    <t>Should be between 8 and 15 characters with at least 1 alphabet and 1 numeric digit</t>
-  </si>
-  <si>
-    <t>Special characters allowed are ! @ # $ . &amp; *</t>
-  </si>
-  <si>
     <t>SELECT * FROM (SELECT T.LEAD_FIELD2 FROM DC_TRANSACTION T WHERE T.CREATED_ON&gt;=TRUNC(Sysdate) AND T.TRANSACTION_TYPE_ID = '249' AND T.CUSTOMER_INFO_ID=(SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CNIC='{customer_cnic}') AND T.CLIENT_DEVICE_OS = 'Windows 10' ORDER BY (T.CREATED_ON) desc) WHERE rownum = 1</t>
   </si>
   <si>
@@ -167,15 +143,6 @@
     <t>SELECT P.IS_PASSWORD_RESET_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
-    <t>When I am verifying Forget Password for Debit Type Customer</t>
-  </si>
-  <si>
-    <t>When I am verifying Forget Password for Credit Type Customer</t>
-  </si>
-  <si>
-    <t>MOJIZABIDI99</t>
-  </si>
-  <si>
     <t>3660178807169</t>
   </si>
   <si>
@@ -183,16 +150,117 @@
   </si>
   <si>
     <t>farooq.leo@hotmail.com</t>
+  </si>
+  <si>
+    <t>To Verify that D-type customer can successfully perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>AUTOMATIONUSER</t>
+  </si>
+  <si>
+    <t>1210118382897</t>
+  </si>
+  <si>
+    <t>4028052000002445</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login Password with incorrect Login ID</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login ID with incorrect CNIC</t>
+  </si>
+  <si>
+    <t>4220135775077</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login ID with incorrect Debit Card Number</t>
+  </si>
+  <si>
+    <t>4028057778002445</t>
+  </si>
+  <si>
+    <t>To Verify that D-type Locked customer can successfully perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>4200028347788</t>
+  </si>
+  <si>
+    <t>5366190000137766</t>
+  </si>
+  <si>
+    <t>To Verify that D-type Blocked customer can not perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>To Verify that D-type Partial Activated customer can not perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>To Verify that C-type customer can successfully perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>CTYPE123</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login Password with incorrect Login ID</t>
+  </si>
+  <si>
+    <t>ANYBODY123</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect CNIC</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect Credit Card Number</t>
+  </si>
+  <si>
+    <t>4902874454884109</t>
+  </si>
+  <si>
+    <t>To Verify that C-type customer can not successfully perform Forgot Login Pasword with incorrect Email Address</t>
+  </si>
+  <si>
+    <t>shoaib.qureshi@hotmail.com</t>
+  </si>
+  <si>
+    <t>To Verify that C-type Locked customer can successfully perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>3310034133615</t>
+  </si>
+  <si>
+    <t>5428317034994765 </t>
+  </si>
+  <si>
+    <t>FAAILTHEONE@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>To Verify that C-type Blocked customer can not perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>To Verify that C-type Partial Activated customer can not perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL L where L.APPLICATION_PARAMETER_ID = 1072</t>
+  </si>
+  <si>
+    <t>new_password_policy_query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,17 +283,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,21 +605,19 @@
     <col min="17" max="17" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="102" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -570,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -579,72 +651,66 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
@@ -653,72 +719,66 @@
         <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>52</v>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
@@ -727,50 +787,879 @@
         <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="R3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>46</v>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1"/>
+    <hyperlink ref="H14" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="75">
   <si>
     <t>Case</t>
   </si>
@@ -239,17 +239,23 @@
     <t>To Verify that C-type Partial Activated customer can not perform Forgot Login Pasword</t>
   </si>
   <si>
-    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL L where L.APPLICATION_PARAMETER_ID = 1072</t>
-  </si>
-  <si>
     <t>new_password_policy_query</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL L where L.APPLICATION_PARAMETER_ID = 1702</t>
+  </si>
+  <si>
+    <t>FAAILZ06</t>
+  </si>
+  <si>
+    <t>LOGINID222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +270,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -287,16 +305,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,10 +647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -684,20 +717,20 @@
         <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -752,20 +785,20 @@
         <v>38</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -820,20 +853,20 @@
         <v>38</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -888,20 +921,20 @@
         <v>38</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -956,20 +989,20 @@
         <v>38</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1024,20 +1057,18 @@
         <v>38</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="8"/>
       <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1078,20 +1109,18 @@
         <v>38</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="8"/>
       <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1132,20 +1161,20 @@
         <v>38</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1200,20 +1229,20 @@
         <v>38</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1268,20 +1297,20 @@
         <v>38</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1336,20 +1365,20 @@
         <v>38</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1404,26 +1433,26 @@
         <v>38</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1472,26 +1501,26 @@
         <v>38</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1540,20 +1569,18 @@
         <v>38</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="8"/>
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1597,20 +1624,18 @@
         <v>38</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="8"/>
       <c r="K16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1651,7 +1676,7 @@
         <v>38</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetPassword.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="96">
   <si>
     <t>Case</t>
   </si>
@@ -249,24 +249,79 @@
   </si>
   <si>
     <t>LOGINID222</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>tran_date_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>tran_debit_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.DEBIT_CARD_NUMBER FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>customer_type_tran_query</t>
+  </si>
+  <si>
+    <t>cnic_tran_query</t>
+  </si>
+  <si>
+    <t>updated_on_tran_query</t>
+  </si>
+  <si>
+    <t>created_on_tran_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '58' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.UPDATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '58' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.CNIC FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '58' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.CUSTOMER_TYPE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '58' order by 1 desc</t>
+  </si>
+  <si>
+    <t>email_tran_query</t>
+  </si>
+  <si>
+    <t>mobile_no_tran_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.MOBILE_NO FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '58' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.EMAIL_ADDRESS FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '58' order by 1 desc</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>customer_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,38 +356,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,10 +695,20 @@
     <col min="22" max="22" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="102" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="25" max="25" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="77.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="85.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="99.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="99.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="91.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="102.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="102" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="98" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,18 +781,48 @@
       <c r="X1" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -787,18 +879,48 @@
       <c r="X2" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -855,18 +977,48 @@
       <c r="X3" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -923,18 +1075,48 @@
       <c r="X4" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -991,18 +1173,48 @@
       <c r="X5" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1059,16 +1271,46 @@
       <c r="X6" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,16 +1353,46 @@
       <c r="X7" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1163,18 +1435,48 @@
       <c r="X8" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1231,18 +1533,48 @@
       <c r="X9" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1299,18 +1631,48 @@
       <c r="X10" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1367,18 +1729,48 @@
       <c r="X11" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1435,24 +1827,54 @@
       <c r="X12" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1503,24 +1925,54 @@
       <c r="X13" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>68</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1571,16 +2023,46 @@
       <c r="X14" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1626,16 +2108,46 @@
       <c r="X15" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="K16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1678,13 +2190,39 @@
       <c r="X16" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Y16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1"/>
-    <hyperlink ref="H14" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>